--- a/tests/network.xlsx
+++ b/tests/network.xlsx
@@ -139,7 +139,7 @@
     <t xml:space="preserve">aspect</t>
   </si>
   <si>
-    <t xml:space="preserve">https://catalogoarchivo.madrid.es/ms-opac/doc?q=recordIdentifier:1@433461</t>
+    <t xml:space="preserve">http://catalogoarchivo.madrid.es/ms-opac/permalink/4@oai_villa_baratz_es_villa_471497</t>
   </si>
   <si>
     <t xml:space="preserve">blow</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">security</t>
   </si>
   <si>
-    <t xml:space="preserve">https://catalogoarchivo.madrid.es/ms-opac/doc?q=recordIdentifier:1@433505</t>
+    <t xml:space="preserve">http://catalogoarchivo.madrid.es/ms-opac/permalink/4@oai_villa_baratz_es_villa_471664</t>
   </si>
   <si>
     <t xml:space="preserve">feather</t>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">raid</t>
   </si>
   <si>
-    <t xml:space="preserve">https://catalogoarchivo.madrid.es/ms-opac/doc?q=recordIdentifier:1@433521</t>
+    <t xml:space="preserve">http://catalogoarchivo.madrid.es/ms-opac/permalink/4@oai_villa_baratz_es_villa_471665</t>
   </si>
   <si>
     <t xml:space="preserve">compact</t>
@@ -310,17 +310,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -336,14 +340,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -625,22 +629,22 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0"/>
+      <c r="B36" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/tests/network.xlsx
+++ b/tests/network.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">financial</t>
   </si>
   <si>
-    <t xml:space="preserve">http://catalogos.munimadrid.es/cgi-bin/hemeroteca?TITN=19245</t>
+    <t xml:space="preserve">http://catalogos.madrid.es/cgi-bin/hemeroteca?TITN=19245</t>
   </si>
   <si>
     <t xml:space="preserve">mill</t>
@@ -73,40 +73,40 @@
     <t xml:space="preserve">move</t>
   </si>
   <si>
-    <t xml:space="preserve">http://catalogos.munimadrid.es/cgi-bin/hemeroteca?TITN=339474</t>
+    <t xml:space="preserve">http://catalogos.madrid.es/cgi-bin/hemeroteca?TITN=339474</t>
   </si>
   <si>
     <t xml:space="preserve">document</t>
   </si>
   <si>
-    <t xml:space="preserve">http://catalogos.munimadrid.es/cgi-bin/hemeroteca?TITN=52686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalogos.munimadrid.es/cgi-bin/historica?TITN=553774</t>
+    <t xml:space="preserve">http://catalogos.madrid.es/cgi-bin/hemeroteca?TITN=52686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://catalogos.madrid.es/cgi-bin/historica?TITN=553774</t>
   </si>
   <si>
     <t xml:space="preserve">hate</t>
   </si>
   <si>
-    <t xml:space="preserve">http://catalogos.munimadrid.es/cgi-bin/historica?TITN=571997</t>
+    <t xml:space="preserve">http://catalogos.madrid.es/cgi-bin/historica?TITN=571997</t>
   </si>
   <si>
     <t xml:space="preserve">pursuit</t>
   </si>
   <si>
-    <t xml:space="preserve">http://catalogos.munimadrid.es/cgi-bin/historica?TITN=579528</t>
+    <t xml:space="preserve">http://catalogos.madrid.es/cgi-bin/historica?TITN=579528</t>
   </si>
   <si>
     <t xml:space="preserve">receipt</t>
   </si>
   <si>
-    <t xml:space="preserve">http://catalogos.munimadrid.es/cgi-bin/opacmusical?TITN=334532</t>
+    <t xml:space="preserve">http://catalogos.madrid.es/cgi-bin/opacmusical?TITN=334532</t>
   </si>
   <si>
     <t xml:space="preserve">definite</t>
   </si>
   <si>
-    <t xml:space="preserve">http://catalogos.munimadrid.es/cgi-bin/opacmusical?TITN=85931</t>
+    <t xml:space="preserve">http://catalogos.madrid.es/cgi-bin/opacmusical?TITN=85931</t>
   </si>
   <si>
     <t xml:space="preserve">haunt</t>
@@ -347,7 +347,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C5:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/tests/network.xlsx
+++ b/tests/network.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">invasion</t>
   </si>
@@ -134,30 +134,6 @@
   </si>
   <si>
     <t xml:space="preserve">http://ceres.mcu.es/pages/Main?idt=134256&amp;inventary=DE2016/1/31&amp;table=FMUS&amp;museum=MOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aspect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalogoarchivo.madrid.es/ms-opac/permalink/4@oai_villa_baratz_es_villa_471497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalogoarchivo.madrid.es/ms-opac/permalink/4@oai_villa_baratz_es_villa_471664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feather</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://catalogoarchivo.madrid.es/ms-opac/permalink/4@oai_villa_baratz_es_villa_471665</t>
   </si>
   <si>
     <t xml:space="preserve">compact</t>
@@ -344,10 +320,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C5:C12"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -503,18 +479,18 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -544,21 +520,21 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -569,64 +545,43 @@
       <c r="B22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="2" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="3"/>
@@ -637,15 +592,9 @@
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="3"/>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
